--- a/biology/Botanique/Trachelospermum_jasminoides/Trachelospermum_jasminoides.xlsx
+++ b/biology/Botanique/Trachelospermum_jasminoides/Trachelospermum_jasminoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Faux jasmin
-Le Faux jasmin (Trachelospermum jasminoides) est une espèce de plante grimpante de la famille des Apocynaceae, originaire d'Asie. Il porte de nombreux autres noms vernaculaires : trachélosperme, jasmin étoilé, jasmin des Indes[1].
+Le Faux jasmin (Trachelospermum jasminoides) est une espèce de plante grimpante de la famille des Apocynaceae, originaire d'Asie. Il porte de nombreux autres noms vernaculaires : trachélosperme, jasmin étoilé, jasmin des Indes.
 Cette liane au feuillage persistant est cultivée dans les jardins des régions au climat doux, mais elle peut résister à des températures descendant jusqu'à environ -10° C.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sur les quelque 67 dénominations botaniques portant le nom de genre Trachelospermum, les instances botaniques internationales ne reconnaissent aujourd'hui que 11 espèces valides et aucune sous-espèce[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur les quelque 67 dénominations botaniques portant le nom de genre Trachelospermum, les instances botaniques internationales ne reconnaissent aujourd'hui que 11 espèces valides et aucune sous-espèce.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Étymologie et histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre Trachelospermum est composé des étymons grec ancien : τραχελος (trachelos, « col »), et σπερμα (sperma, « semence, graine »), allusion à la forme des graines, allongé-rétrécies au sommet et terminées par une aigrette. L'épithète spécifique jasminoides vaut des fleurs « semblables au jasmin ».
-Le très habile collecteur de plantes, Robert Fortune, l'a rencontré en Chine près de Shanghai[3] et a envoyé des spécimens vivants en Angleterre en 1844, au Jardin de la Société d'Horticulture de Londres où il fleurit l'année suivante.
-Le botaniste britannique John Lindley le décrit et le classe[4] en 1846 parmi des Rhynchospermum (en) un genre d'Apocynacées, créé par Alphonse de Candolle. En 1851, Charles Lemaire s'aperçoit que le genre Rhynchospermum  avait déjà été utilisé dans la famille des Asteraceae et reclasse le faux jasmin parmi les  Trachelospermum[3].
+Le très habile collecteur de plantes, Robert Fortune, l'a rencontré en Chine près de Shanghai et a envoyé des spécimens vivants en Angleterre en 1844, au Jardin de la Société d'Horticulture de Londres où il fleurit l'année suivante.
+Le botaniste britannique John Lindley le décrit et le classe en 1846 parmi des Rhynchospermum (en) un genre d'Apocynacées, créé par Alphonse de Candolle. En 1851, Charles Lemaire s'aperçoit que le genre Rhynchospermum  avait déjà été utilisé dans la famille des Asteraceae et reclasse le faux jasmin parmi les  Trachelospermum.
 </t>
         </is>
       </c>
@@ -579,10 +595,52 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Feuilles.
-Trachelospermum jasminoides est une plante grimpante dont les tiges ligneuses peuvent atteindre 10 mètres de long[5]. Lorsque celles-ci rencontrent une surface humide, elles émettent des racines adventices aériennes[3], sinon elles entourent le support (elles sont volubiles). Si on les coupe, comme la plupart des Apocynacées, elles exsudent un latex blanc, ressemblant à du lait poisseux. Les jeunes rameaux d'abord pubescents deviennent glabres en vieillissant. Les feuilles persistantes, opposées, portées par des pétioles de 3-12 mm de long[5], comportent un limbe ovale à obovale ou étroitement elliptique, de 2-10 x 1-4,5 cm. Vert foncé l'été, les feuilles se teintent de bronze l'hiver.
-Appareil reproducteur
+Trachelospermum jasminoides est une plante grimpante dont les tiges ligneuses peuvent atteindre 10 mètres de long. Lorsque celles-ci rencontrent une surface humide, elles émettent des racines adventices aériennes, sinon elles entourent le support (elles sont volubiles). Si on les coupe, comme la plupart des Apocynacées, elles exsudent un latex blanc, ressemblant à du lait poisseux. Les jeunes rameaux d'abord pubescents deviennent glabres en vieillissant. Les feuilles persistantes, opposées, portées par des pétioles de 3-12 mm de long, comportent un limbe ovale à obovale ou étroitement elliptique, de 2-10 x 1-4,5 cm. Vert foncé l'été, les feuilles se teintent de bronze l'hiver.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Trachelospermum_jasminoides</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trachelospermum_jasminoides</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Plante en fleur.
 			Détail de la fleur.
 			Trachelospermum jasminoides, cymes de fleurs.
@@ -597,31 +655,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Trachelospermum_jasminoides</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Trachelospermum_jasminoides</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Trachelospermum_jasminoides</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trachelospermum_jasminoides</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Rhynchospermum jasminoides Lindl., 1846, J. Hort. Soc. London, 1 : 74 (basionyme)
 Trachelospermum divaricatum  (Thunb.) K.Schum., 1895
@@ -629,31 +689,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Trachelospermum_jasminoides</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Trachelospermum_jasminoides</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Trachelospermum_jasminoides</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trachelospermum_jasminoides</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Trachelospermum jasminoides est originaire de Chine, de Corée, du Japon et du Viêt Nam.
 Il croît à l'orée des forêts.
@@ -661,37 +723,6 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Trachelospermum_jasminoides</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Trachelospermum_jasminoides</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Confusion possible</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec Trachelospermum asiaticum.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
@@ -713,17 +744,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Culture</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Trachelospermum jasminoides peut être cultivé en pot ou en pleine terre dans les climats doux[6]. Planté à l'abri du vent, le long d'un mur au sud ou à l'ouest, il est en mesure de supporter des gels à −15 °C (zone de rusticité 8-10) ; la végétation aérienne meurt à −7 °C mais la souche peut repartir.
-Le planter en avril ou mai, dans un trou de 40 cm de profondeur, sur une bonne couche de gros gravier, afin d'assurer un drainage suffisant l'hiver.
-Les premières années, sa croissance est lente et il est nécessaire d'attacher ses pousses sur un support. Ses tiges volubiles sauront par la suite s'enrouler sur le support.
-Cette espèce est recommandée pour la végétalisation des trottoirs urbains le long des façades[7].
-Il apprécie les sols frais mais bien drainés, humifères. Il ne faut pas l'exposer à une sécheresse trop prolongée.
-En Chine, il est souvent cultivé sur des rochers ou des arbres[8]. Il porte le nom de luoshi 络石 (réseau-pierre) parce qu'il s'étale en réseau sur le rocher.
+          <t>Confusion possible</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec Trachelospermum asiaticum.
 </t>
         </is>
       </c>
@@ -749,21 +777,61 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Trachelospermum jasminoides peut être cultivé en pot ou en pleine terre dans les climats doux. Planté à l'abri du vent, le long d'un mur au sud ou à l'ouest, il est en mesure de supporter des gels à −15 °C (zone de rusticité 8-10) ; la végétation aérienne meurt à −7 °C mais la souche peut repartir.
+Le planter en avril ou mai, dans un trou de 40 cm de profondeur, sur une bonne couche de gros gravier, afin d'assurer un drainage suffisant l'hiver.
+Les premières années, sa croissance est lente et il est nécessaire d'attacher ses pousses sur un support. Ses tiges volubiles sauront par la suite s'enrouler sur le support.
+Cette espèce est recommandée pour la végétalisation des trottoirs urbains le long des façades.
+Il apprécie les sols frais mais bien drainés, humifères. Il ne faut pas l'exposer à une sécheresse trop prolongée.
+En Chine, il est souvent cultivé sur des rochers ou des arbres. Il porte le nom de luoshi 络石 (réseau-pierre) parce qu'il s'étale en réseau sur le rocher.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Trachelospermum_jasminoides</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trachelospermum_jasminoides</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Constituants chimiques</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trachelospermum jasminoides contient des flavonoïdes, lignanes, terpénoïdes, stéroïdes et alcaloïdes[9].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trachelospermum jasminoides contient des flavonoïdes, lignanes, terpénoïdes, stéroïdes et alcaloïdes.
 Les composés phénoliques suivant ont été extraits :
 acide-phénols : acide gallique, acide caféique,
 acide chlorogénique
-flavonoïdes : taxifoline (dihydroquercétine), taxifoline 3-glucoside, isoquercitrine, quercétine, quercétine 3-arabinoside, aidzine, astragaline (kaempférol 3-glucoside), cosmosiine, apigenin-7-O-β-D-glucopyranoside[10],[11].
-Cinq alcaloïdes indoliques ont été isolés des feuilles et tiges : la coronaridine (en), voacangine, apparicine, conoflorine, and 19-epi-voacangarine[12].
-Trachelospermum jasminoides  produit aussi des lignanes, des phytoestrogènes connus pour leur activité antioxydante[13].
-En médecine traditionnelle chinoise, Trachelospermum jasminoides est prescrit pour le traitement des rhumatismes, de la pharyngite et de la sciatique[10].
-L'équipe de Sha Li et als[14]. de Canton a évalué l'activité antioxydante de 223 plantes médicinales chinoises par la technique de réduction du fer (FRAP, Ferric Reducing Antioxydant Power) et la méthode  TEAC (Trolox Equivalent Antioxidant Capacity) ainsi que la valeur du phénol total (par la méthode Folin-Ciocalteu). Ils ont trouvé que Trachelospermum jasminoides possédait une activité antioxydante somme toute limitée.
-Les fleurs du faux jasmin exhalent un parfum exquis rappelant le jasmin. Il est fait d'une combinaison exceptionnelle de notes épicées, due à la présence de linalol, indole, jasmonate de méthyle, jasmones et isoeugénol[15] (le linalol et la jasmone se retrouvent dans le parfum du jasmin d'Espagne Jasminum grandiflorum).
+flavonoïdes : taxifoline (dihydroquercétine), taxifoline 3-glucoside, isoquercitrine, quercétine, quercétine 3-arabinoside, aidzine, astragaline (kaempférol 3-glucoside), cosmosiine, apigenin-7-O-β-D-glucopyranoside,.
+Cinq alcaloïdes indoliques ont été isolés des feuilles et tiges : la coronaridine (en), voacangine, apparicine, conoflorine, and 19-epi-voacangarine.
+Trachelospermum jasminoides  produit aussi des lignanes, des phytoestrogènes connus pour leur activité antioxydante.
+En médecine traditionnelle chinoise, Trachelospermum jasminoides est prescrit pour le traitement des rhumatismes, de la pharyngite et de la sciatique.
+L'équipe de Sha Li et als. de Canton a évalué l'activité antioxydante de 223 plantes médicinales chinoises par la technique de réduction du fer (FRAP, Ferric Reducing Antioxydant Power) et la méthode  TEAC (Trolox Equivalent Antioxidant Capacity) ainsi que la valeur du phénol total (par la méthode Folin-Ciocalteu). Ils ont trouvé que Trachelospermum jasminoides possédait une activité antioxydante somme toute limitée.
+Les fleurs du faux jasmin exhalent un parfum exquis rappelant le jasmin. Il est fait d'une combinaison exceptionnelle de notes épicées, due à la présence de linalol, indole, jasmonate de méthyle, jasmones et isoeugénol (le linalol et la jasmone se retrouvent dans le parfum du jasmin d'Espagne Jasminum grandiflorum).
 Toute la plante est toxique et ne doit pas être consommée en dehors de son usage médicinal.
 </t>
         </is>
